--- a/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Walberg. A quorum being present, the subcommittee will come to order.    Good morning. Today the subcommittee will examine a number of legislative proposals intended to provide greater transparency and accountability to the Equal Employment Opportunity Commission.    I would like to thank our witnesses for joining us. We have a distinguished panel to help us look at a number of complex and important issues.    All workers deserve strong protections against employment discrimination. Toward that end, there continues to be support for federal laws such as the Americans with Disabilities Act, the Civil Liberties--or Civil Rights Act, and the Age Discrimination in Employment Act, and others.    There is no doubt that every member of the Committee expects the fair and vigorous enforcement of these laws in our nation's workplaces, and that is precisely why we are here today.    The Equal Employment Opportunity Commission plays a vital role ensuring America's workers are free to pursue employment without fear of discrimination based on their race, their gender, their disability, or religion. We need this agency to do its job effectively so that every American has a shot to succeed based on merit and hard work.    Unfortunately, the enforcement and regulatory approach adopted by EEOC in recent years raises serious doubts about whether our nation's best interests are being served.    For example, the Commission has implemented controversial guidance on the use of criminal background checks that will make it more difficult for employers to protect their employees and customers. At a hearing held last Congress, the subcommittee received testimony from Ms. Lucia Bone, whose sister, Sue Weaver, was murdered by a man who months earlier had cleaned the air ducts in her home. A simple criminal background check might have saved this woman's innocent life.    State and local policies requiring criminal background checks are intended to protect Americans who come in contact with workers in vulnerable situations, such as at home and in the classroom. As a result of EEOC's misguided policy, more Americans will be put in harm's way, including women and children.    The EEOC should scrap this misguided policy completely. But if it won't, then Congress should take steps to rein it in and help provide families greater peace of mind the next time they invite a stranger into their home or a child's classroom.    Furthermore, EEOC has challenged employee wellness programs. Employers develop these innovative programs in order to improve the health of employees and their families, increase productivity, and reduce health costs. Yet litigation pursued by the Commission is actually discouraging employers from implementing these programs even though Congress, on a bipartisan basis, has expressed its clear support for employee wellness programs.    Lastly, EEOC is spending more time and resources pursuing systemic or class action investigations, often without any allegation of wrongdoing. The Commission has also been sanctioned in recent years for pursuing claims that are frivolous and without merit.    This is how one federal court--circuit court described the EEOC enforcement action, and I quote: ``EEOC brought this case on the basis of a homemade methodology, crafted by witness with no particular expertise to craft it, administered by persons with no particular expertise to administer it, tested by no one, and accepted only by the witness himself.''    Meanwhile, a backlog of discrimination claims filed by individual workers continues to plague the Commission. This is no way to run an agency with a mission as important as the EEOC's, and we must demand better. To help workers succeed in the workplace without fear of discrimination, Congress has a responsibility to hold the Commission accountable for its regulatory and enforcement policies.    We will examine today a number of legislative proposals to help us do just that. Together, these proposals will instill greater transparency and accountability in EEOC, and improve its enforcement activities, and help more workers and employers enjoy the benefits of employee wellness programs.    I look forward to discussing in greater detail with our witnesses the positive reforms in these bills and hope they will receive strong, bipartisan support.    With that, I will now recognize the Ranking Member of the subcommittee, Representative Wilson, for her opening remarks.</t>
   </si>
   <si>
     <t>412412</t>
   </si>
   <si>
-    <t>Frederica S. Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you, Mr. Chairman.    Today we will examine four bills that would impact the Equal Employment Opportunity Commission, EEOC, in ways that I fear will compromise the enforcement of civil rights laws. Since 2014, we will have had three hearings regarding the EEOC; yet, we have not once invited the Commissioners themselves to testify about the bills that could severely impact their enforcement of employment civil rights laws.    The name of this subcommittee is Workforce Protections, and by our name alone it is clear that we should be doing our best to protect workers. These four bills appear to be a grab-bag for unscrupulous employers seeking to strip the EEOC of the tools they need to combat employment discrimination on the basis of race, color, religion, national origin, sex, pregnancy, age, disability, and genetic information.    Fifty years ago, after the creation of the enactment of the Civil Rights Act of 1965 and the creation of the EEOC, the job of the EEOC is far from complete, despite many advances.    Mr. Chairman, these four bills today ignore the fact that race, gender, disability, and age discrimination persist, and we should not be hindering the agency's charge with combatting unlawful discrimination. In fiscal year 2014, just for example, in fiscal year 2014, of the 88,778 discrimination charges filed with EEOC, 35 percent were based on race, 29 percent were based on sex, 29 percent were based on disability status, and 23.2 percent were based on age discrimination.    Mr. Chairman, I am at a loss to understand why we would want to tie the hands of the EEOC, an agency that has a backlog of 70-plus charges.    Here is how we would tie their hands. Number one: Stripping the general counsel's authority to make a determination about what charges the EEOC should pursue to protect American workers, given there is a policy in place to ensure novel legal questions and controversial matters must already--already be submitted to the Commission for approval.    Number two: Limiting the EEOC's disparate impact examination of criminal background checks. Even Clarence Thomas, Commission chair in 1987, adopted the agency's guidance, which says that the criminal background checks, like other hiring requirements that could exclude certain people, should only relate to the job.    Number three: Granting liability exemption to employers who violate employee privacy and civil rights under the American and Disabilities Act (ADA) and the Genetic Information Nondiscrimination Act (GINA).    And number four: Finally, undermining the successful conciliation process by imposing legal hurdles to resolving cases and opening the process to extensive litigation based on the adequacy of the conciliation process, rather than resolving the substance of whether or not there are impermissible discrimination.    EEOC's job should be about getting results, not providing full employment for law firms looking for new ways to frustrate resolution of a disputed discrimination case.    Mr. Chairman, I would ask that you call another hearing where we can review these four bills with all five of the EEOC Commissioners. We need to assess the implications of these bills and determine whether there are unintended effects, such as piling on delays in resolving cases.    We need to hear from the Commissioners to determine whether these bills will set up roadblocks for fair and timely resolution of claims by those who face race, sex, age, or disability-based discrimination. We want to determine if these bills, as drafted, will spawn unnecessary litigation and create more confusion.    I thank the witnesses for being here today, and I look forward to hearing your testimony. Thank you so much for coming.    I yield back to the Chairman.</t>
   </si>
   <si>
@@ -73,45 +67,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kehoe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kehoe. Chairman Walberg, Chairman Kline, Ranking Member Wilson, and members of the subcommittee, thank you for inviting me to testify today on behalf of the U.S. Chamber of Commerce.    The Chamber of Commerce is a longstanding supporter of reasonable and necessary steps designed to achieve equal employment opportunity. However, the Chamber has serious concerns as to how these laws are currently being administered and enforced by the EEOC.    No matter how well-intentioned, any law enforcement agency's judgment, including the EEOC, can become clouded by hubris and susceptible to overreach. Too often, courts have taken exception to the EEOC's shoot-first-aim-later tactics.    For example, just last Friday, a judge awarded attorney's fees to two companies forced to defend themselves against what the court called frivolous litigation. Just a month ago, a 4th Circuit judge issued a scathing opinion against the EEOC for not being vigilant enough to avoid abusing the power that Congress bestowed upon it.    These and other litigation embarrassments can be blamed in part on the Commissioners' lack of control over the EEOC litigation program. Only Commissioners have the statutory authority to initiate litigation. In 1996 the Commissioners delegated away much of this authority to the general counsel, who then re-delegated away to regional attorneys.    The Commission partially rescinded this delegation in 2012, but problems persist. Far too often, Commissioners learn about litigation by an EEOC press release or social media. The general counsel or unappointed, unconfirmed regional attorneys are making policy through litigation. However, any EEOC general counsel is the agency's litigator, not its policymaker.    For 40 years courts have reviewed the EEOC's statutory conciliation efforts. In 2013, a 7th Circuit Court rejected this statutory safeguard, finding conciliation not subject to judicial review.    This issue is currently before the Supreme Court in EEOC v. Mach Mining, where the EEOC argued that, as a law enforcement agency, its actions related to whether it complied with statutory mandates are not reviewable. This position is simply breathtaking in scope and encourages the EEOC to purposefully eschew conciliation in search of the next lawsuit--the opposite of congressional intent.    All of the issues that have plagued the EEOC recently were on full display in EEOC v. Honeywell, a case filed by the EEOC seeking a preliminary injunction to prohibit Honeywell from offering financial incentives pursuant to the wellness program. The EEOC received charges on October 16, 2014, determined that day that a violation of the ADA and GINA occurred, demanded that Honeywell stop using financial incentives, and filed litigation 11 days later.    However, the Affordable Care Act, HIPAA, and joint regulations issued by three cabinet-level agencies permit--indeed, encourage--financial incentives and wellness programs. The EEOC's theory was that the incentives made participation non-voluntary under the ADA and GINA even if the incentives complied with the Affordable Care Act and its implementing regulations.    One district office believed so and filed suit without Commissioner approval, seeing to establish a policy position never adopted by the Commissioners. This rogue agency strategy will likely have a chilling effect on the development and implementation of wellness programs.    Ultimately, the EEOC's choice to focus on systemic litigation with questionable theories has caused it to ignore instances of more traditional types of discrimination, leaving alleged victims and their employers in limbo, literally for years.    A decade ago, the Commission would file almost 375 lawsuits annually. Despite an increased budget in 2010, the EEOC now files only 130. One can rightfully ask what the EEOC is doing with its sizeable budget, as it is clear that all too often they are not investigating promptly, not conciliating in good faith, and not litigating very well.    Justice Brandeis once said that sunlight is the best disinfectant. The four bills under consideration today would provide that sunlight and are common-sense, narrow solutions to these issues.    H.R. 549 will ensure that policymaking is rightfully returned to the commissions--Commissioners in all multi-victim litigation that the EEOC pursues. H.R. 550 will clarify the EEOC's duty to conciliate and ensure that such efforts are reviewable in court. H.R. 1189 will ease the uncertainty created by the EEOC's litigation against Honeywell.    Finally, H.R. 548 provides clarity for employers faced with state or local mandates prohibiting the hiring of certain convicted felons for certain positions. That is all that it does.    Overall, these bills should enhance the EEOC's functionality and accountability, and the chamber supports them.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Now recognize Ms. Simon for five minutes of testimony.</t>
   </si>
   <si>
-    <t>Simon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Simon. Good morning, Chairman Walberg, Chairman Kline, Ranking Member Wilson, and members of the subcommittee. My name is Tami Simon and I am managing director of the Knowledge Resource Center and the Career Practice at Buck Consultants and Xerox Company. It is my honor to testify today on behalf of the American Benefits Council, of which Buck Consultants is a member.    Collectively, the Council's members either sponsor directly or provide services to employee benefit plans that cover over one million Americans. Many of the council's members are at the forefront of developing wellness programs to help employees live healthier lives.    I have three points that I would like to share with you today. First, why are wellness programs good for America? Second, what are the current challenges that employers are facing with their wellness programs today? And third, why is legislation necessary?    First, why are wellness programs good for America? Wellness programs help achieve better health outcomes for employees and also have the potential to increase employee productivity by helping to reduce absenteeism due to sickness and disability, improve workforce morale and engagement, and reduce health care spending.    The prospect of a healthier workforce has compelled a growing number of companies to develop and implement wellness strategies; 65 percent of respondents to Buck's 2014 wellness survey indicated that they have a wellness strategy. That is up from 49 percent in 2007. Other surveys estimate that more than 75 percent of U.S. employees now have access to wellness programs.    A critical component of encouraging employers to offer meaningful wellness programs is consistent federal policy that promotes the health of Americans and is aligned across multiple agencies and Congress.    As such, employers applaud Congress for working on a bipartisan basis to craft the wellness provision in the Patient Protection and Affordable Care Act that built on the existing wellness program framework created by HIPAA. This is a rare bipartisan provision in the controversial health care reform law and reflects Congress' approval of offering incentives for health-contingent wellness programs.    Now, as you may recall, HIPAA prohibits group health plan wellness programs from discriminating against individuals in eligibility, benefits, and premiums based on a health factor, which includes, among other things, disability. And for many such programs, the law imposes financial limits, notice obligations, and alternative standards for those unable to meet the program standards.    HIPAA also contains privacy and security rules protecting individual health information. Information that is obtained through a wellness program is part of the group health plan, can't be used without an authorization for any reason other than treatment, payment, or health care operations.    So what is the current challenge? Notwithstanding employers' interest in establishing legally compliant wellness programs and the bipartisan support of Congress and the administration, a great deal of uncertainty exists in current EEOC guidance regarding what constitutes a voluntary wellness program under the Americans with Disability Act and how the Genetic Information Nondiscrimination Act applies to common wellness program designs.    This legal uncertainty has been exacerbated by enforcement actions initiated by the EEOC regional offices against some employers' HIPAA and PPACA-compliant wellness programs. These actions allege that incentives or penalties associated with participation in a group health plan's wellness program violate the ADA and GINA.    These actions have had a chilling effect on employer wellness programs.    To put it more plainly, currently employers just don't know what to do. On the one hand, they are designing programs that comply with HIPAA and PPACA's clear and comprehensive nondiscrimination rules, but on the other hand, still face the risk of litigation for not complying with EEOC's unclear standards. This is very frustrating for employers that care about the well-being of their employees and take seriously their compliance obligations.    So what is the solution? Chairman Kline has introduced the Preserving Employee Wellness Programs Act of 2015, or H.R. 1189, which supports the existing HIPAA and PPACA legislative framework with regard to wellness programs, striking, we believe, the right balance between providing certainty to employers and ensuring an appropriate role for the EEOC to protect employees from discrimination.    The council fully supports advancement of H.R. 1189 and urges members of the subcommittee and full committee to please join Chairman Kline as cosponsors.    Thank you for the opportunity to testify, and the council and I look forward to working with you to restore certainty to employers focusing on improving the health of their workforce.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Recognize Ms. House now for your five minutes of testimony.</t>
   </si>
   <si>
-    <t>House</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. House. Thank you.    Chairman Walberg, Ranking Member Wilson, and all the members of the Workforce Protections Subcommittee, I am Tanya Clay House, director of public policy of the Lawyers' Committee for Civil Rights Under Law. I thank you for the opportunity to provide this testimony today in furtherance of the protection of the equal employment and civil rights of all Americans.    The Lawyers' Committee is a nonpartisan, nonprofit organization established in 1963 at the request of President John F. Kennedy to involve the private bar in providing legal services to address racial discrimination. As policy director and as co-chair of the Employment Task Force of the Leadership Conference on Civil and Human Rights, I work with the larger civil rights community on the numerous employment issues generally, as well as the necessary enforcement agencies, including the Equal Employment Opportunity Commission as well as the Department of Justice.    In the interest of time, I would like to focus my remarks primarily on the underlying theories that support a more robust EEOC and oppose the passage of legislation that would undermine the civil rights of employees. As this Committee is aware, Congress has assigned the EEOC the primary responsibility for enforcing, in the private sector, most of the provisions prohibiting discrimination in employment of every major civil rights law enacted since 1963.    Yet, H.R. 548, 549, 550, and 1189 all would subtract from the scope of the EEOC's enforcement authority in a way that would primarily serve to eliminate the effective and timely enforcement of civil rights protections for American workers. Furthermore, the claim that such bills would actually enable the EEOC to more efficiently comply with its mandate begs the question of whether supporters of these bills believe the mandate of the EEOC is to eliminate the obligations of employers to not discriminate or allow for the creation of hostile work environments, or instead, to protect the rights of employees to not be unfairly discriminated against.    Unless the EEOC's mandate has changed within the past 24 hours of me writing this testimony, I would submit that it is the latter.    Employee claims of discrimination are not subsiding. Every year during the Obama administration the EEOC has received between 90 to 100 charges of--100,000 charges of discrimination. Despite a relatively small staff, the Commission has been able to conclude 15 or more of the--percent of the--more of the cases resolved every year with some form of compensation or other benefit to the employee who has been charged--who has charged the employer with discrimination.    A recent example is a case that has been prosecuted by the EEOC jointly with the Lawyers' Committee, the state of New York, the city of New York, and in this case, the settlement would potentially provide an estimated $12 million in compensation to 400 workers.    Critics of the EEOC view the Commission as a government agency that needs to be restrained. The Lawyers' Committee and the larger civil rights community fervently reject this belief. In light of the substantial benefits the Commission obtains for employees, it is not reasonable to evaluate the EEOC based upon a small number of reports highlighted by those opposed generally to the EEOC and the law it enforces.    To be clear, H.R. 1189, H.R. 548 would both essentially declare by fiat that certain civil rights laws are null and void in application. Specifically, H.R. 548 would undermine the protections that Title 7 provides by codifying the use of unjust stereotypes by employers.    On the other hand H.R. 1189 effectively works to undermine critical civil rights protections and permits workers to be coerced into disclosing sensitive medical and genetic information to their employers, thus enabling employers to shift the cost of health insurance away from them and onto the employee.    H.R. 549 would eliminate the ability of the EEOC to more efficiently engage in investigations and lawsuits, instead instituting unnecessary, duplicative, and untimely--and ultimately obstructionist approval process for litigation, while H.R. 550 attempts to legislatively require the EEOC to engage in a process that is currently under review at the Supreme Court of--in the case of Mach Mining.    Although the claim was made that all these bills would create a more efficient EEOC, the idea that enabling the blanket disregard of current civil rights laws is incredulous at best. Congress should not disregard the very real existence of ongoing, unjust discrimination against American workers.    For instance, current estimates are the 70 million Americans have an arrest record for criminal offense. Thus, H.R. 548 would automatically exclude all of these Americans--70 million Americans--from the workforce.    This is not just anecdotal. In the case where the Lawyers' Committee is co-counsel, census records for the 2010 process reveal that between 850,000 and 1 million applicants who had FBI arrest records were diverted into a separate screening process where fewer than 1 percent were hired, while almost 30 percent of the applicants who remained in the regular pool were hired.    The enforcement of our nation's civil rights laws, particularly those in the employment context, is of a paramount importance to the Lawyers' Committee. If the goal is to enable more effective enforcement on behalf of American workers, we suggest the committee provide for proper funding of the EEOC.    I encourage this Committee to not move forward with legislation that would undermine the EEOC. The American workers are depending on you to protect the employment rights and simply do the right thing.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Now, Professor Heriot, we will recognize you for your five minutes of testimony.</t>
   </si>
   <si>
-    <t>Heriot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Heriot. Thank you for this opportunity to testify in support of the proposed Certainty in Enforcement Act.    The bill is aimed largely at correcting a narrow problem created by the EEOC's April 25, 2012 guidance, a controversial document aimed at restricting an employer's ability to take into consideration a job applicant's criminal record when hiring. The guidance purports to draw its authority from Title 7, which prohibits employment discrimination based on race, color, religion, sex, or national origin.    Of course, it requires some gymnastics to get from that kind of discrimination to discrimination on the basis of criminal record. To do so, the EEOC employs disparate impact theory.    Under this controversial theory, which, alas, was approved by the Supreme Court back in the 1970s in Griggs v. Duke Power Company, intent to discriminate on the basis of race, color, et cetera is irrelevant. It is enough the employer's actions have an effect on some--have more effect on some protected groups than others if they are not justified by business necessity.    I should add at this juncture that in addition to the narrow problem dealt with with the proposed act, there are many other things wrong with this guidance. But given the difficulties of passing major legislation, this bill must be regarded as a good start--one that should enjoy bipartisan support.    So let me get to the narrow point to the bill. The bill seeks to resolve a conflict between federal law, or at least the EEOC's conception of federal law, and state law. On the one hand, the guidance is aimed in very vague terms at limiting an employer's discretion to make employment decisions based on the employee's criminal record. Unfortunately, after reading it, even experienced attorneys won't know how to resolve particular cases.    But on the other hand, state law sometimes requires employers to decline to hire employees based on their criminal records. So what is the employer to do?    The guidance forces employers into an impossible bind. Employers are told that maybe--but only maybe--federal law forbids what state law requires, and that if so, it is their duty to obey federal, not state law.    According to the guidance, it depends on the circumstances of each situation since even the EEOC is not foolish enough to believe that a convicted pedophile should be hired as a camp counselor or that a convicted necrophiliac should be able to get a job at the morgue.    Nobody knows where the EEOC will draw the line. All they know is that the agency has been pushing the line very far towards not permitting employers to take criminal convictions into account.    The one thing that is clear is that if, in the EEOC's view, federal law forbids what state law demands, the employers allegiance must be to federal law. Employers are apparently expected to make their best guess as to whether federal law overrules state law in any particular case. In the end it will be utterly unclear to any conscientious employer exactly what, if anything, the EEOC is attempting to require it to do.    Now, it is true that under the supremacy clause federal law trumps state law, but the guidance's lack of clarity makes the situation extremely unfair to employers. It shouldn't be that way. When a law contains catch-22s of this kind, jobs get exported overseas.    Expect two kinds of errors. An employer may wrongly conclude that the guidance does not forbid her to follow state law, or she may wrongly conclude that it does. In either case, she is going to be in hot water with some government agency, be it federal or state.    The proposed Certainty in Enforcement Act throws the hapless employer a lifeline. It clarifies federal law in one respect: It tells employers that they are free to comply with state law without fear of being found in violation of Title 7 on a disparate impact theory. Again, very, very narrow.    Since I have a few seconds left on the clock, let me say that an even better proposal would be to overrule the EEOC entirely and restore employer discretion to take into account an employee's criminal record according to her best judgment. Simply exempt decisions based on criminal records from liability for disparate impact.    Note that I am not saying that the federal government should do nothing to encourage the hiring of ex-offenders. The government already does this by providing a tax deduction for employers who hire ex-offenders.    This carrot approach works much better than the stick because it allows employers to fit the right ex-offender into the right job. Pressuring employees to hire ex-offenders against their better judgment will only result in problems.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    And thank you, each of the panelists, for your testimony. I am sure it will elicit some strong questions.    And for that, I recognize the Chairman of the full Committee, Mr. Kline, sponsor of H.R. 1189, for first round of questioning.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman, for your courtesy in allowing me to ask the first question. Actually won't get you anything, but thanks so much, and thanks to the witnesses----</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t xml:space="preserve">    Chairman Walberg. Thank the gentleman.    I now recognize the gentleman from Virginia and the Ranking Member of the full Committee, Mr. Scott.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, thank you, Mr. Chairman.    Mr. Kehoe, does your testimony include the statement that the EEOC does not have the authority to issue regulations under Title 7?</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>412605</t>
   </si>
   <si>
-    <t>Dave Brat</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, to all that are with us today, for your testimony.    I taught economic justice for the last 18 years at Randolph-Macon College and so I think it is the intent of everyone here, and the--sometimes the partisan hyperbole goes a little overboard, but I think everyone here is in favor of justice for everybody and equal treatment under the law for everybody. And so I applaud all of you for your statements. I think it just comes down to kind of common sense and where the pendulum is.    And so I think you have all done an outstanding job today, of showing us that it looks like the--previous comments just offered up--the EEOC is overreaching in some cases, or the employer is the better judge of what should be taking place. And at the same time, we don't--our justice system allows for individuals under law to contest that.    And so I don't have much more to add beyond what our panelists today have offered up.    Thank you very much for being with us.    I yield back, Mr. Chairman--my time back to the Chairman, yes.</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman.    And thank you, to the witnesses.    I am going to comment, and I got the feeling I am going to be doing this every subcommittee. We did a good job of lawyering up again; we have got a lot of lawyers on the panel. It would be nice maybe to have some of the small business owners who are affected.    We are going to have to change the name of the committee pretty soon to Education and Workforce via the Judicial System at the rate we are going. But we do have a lot of lawyers----</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair.    And thank you all for your testimony.    Ms. House, during your testimony on the Certainty in Enforcement Act you mentioned that 70 million Americans would automatically be excluded from the employment sector because of criminal background searches, with the greatest impact being felt in the African-American community. According to the Crime and Delinquency Journal, by age 23, 49 percent of black males and 44 percent of Hispanic males have been arrested.    Can you speak to the effect that this legislation would have on already high employment rate for African-Americans and Hispanics and how it in turn would affect their respective communities?</t>
   </si>
   <si>
@@ -350,9 +317,6 @@
   </si>
   <si>
     <t>412613</t>
-  </si>
-  <si>
-    <t>Mark DeSaulnier</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman.    And like my friend from Wisconsin, I struggle with being a small--former small business owner who was going to go to law school and chose not to and continued to follow that choice. And I appreciate the Chairman's comments as well, as being a small employer who worried about lawyering up.    So my questions are about an issue that I spent a good deal of time on in the California legislature and with a constituent who was a longtime chairman of Safeway and tried to do employee wellness programs, but he did that through the meet and confer process for all of his non-management folks. So while I believe that there is evidence that obviously wellness programs are good for everybody, they help to control costs.    But I also believe, as a former employer, that sometimes--to sort of borrow what Professor Heriot said--that although you can't mandate from the beltway, sometimes--oftentimes managing people you try to do it collaboratively and--rather than force them to do things.    So the question is to Ms. House to begin with. The Genetic Information Nondiscrimination Act made sure that wellness programs and that information were given up voluntarily. The Preserving Employee Wellness Programs Act that Congress currently is considering overrides the GINA provision that requires that participation in wellness programs are voluntary.    So much of this is being defined in the court system right now. Is that not true, in----</t>
@@ -820,11 +784,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -844,13 +806,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -872,11 +832,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -896,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -924,11 +880,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -948,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -976,11 +928,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1000,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1028,11 +976,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1052,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1080,11 +1024,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1104,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1132,11 +1072,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1156,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1182,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1208,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1234,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1260,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1288,11 +1216,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1312,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1338,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1364,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1392,11 +1312,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1416,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1442,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1468,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1494,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1520,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1546,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1572,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1598,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1624,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1650,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1676,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1702,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1728,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1754,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1780,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1808,11 +1696,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1832,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1860,11 +1744,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1884,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1912,11 +1792,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1936,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1964,11 +1840,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1988,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2016,11 +1888,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2040,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2066,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2092,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2118,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2146,11 +2008,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2170,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2198,11 +2056,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2222,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2250,11 +2104,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2274,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2302,11 +2152,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2326,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2354,11 +2200,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2378,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2406,11 +2248,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2430,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2456,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2482,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2508,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2534,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2560,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2586,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2612,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2638,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2664,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2692,11 +2512,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2716,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2742,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2768,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2794,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2820,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2846,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2872,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2898,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2924,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2952,11 +2752,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2976,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>111</v>
-      </c>
-      <c r="G85" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3002,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3028,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
-      </c>
-      <c r="G87" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3054,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3080,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3106,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3132,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3158,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3184,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3210,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3236,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>111</v>
-      </c>
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3262,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3288,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3314,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3340,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3366,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3392,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3418,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3444,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3472,11 +3232,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3498,11 +3256,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3522,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3550,11 +3304,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Walberg. A quorum being present, the subcommittee will come to order.    Good morning. Today the subcommittee will examine a number of legislative proposals intended to provide greater transparency and accountability to the Equal Employment Opportunity Commission.    I would like to thank our witnesses for joining us. We have a distinguished panel to help us look at a number of complex and important issues.    All workers deserve strong protections against employment discrimination. Toward that end, there continues to be support for federal laws such as the Americans with Disabilities Act, the Civil Liberties--or Civil Rights Act, and the Age Discrimination in Employment Act, and others.    There is no doubt that every member of the Committee expects the fair and vigorous enforcement of these laws in our nation's workplaces, and that is precisely why we are here today.    The Equal Employment Opportunity Commission plays a vital role ensuring America's workers are free to pursue employment without fear of discrimination based on their race, their gender, their disability, or religion. We need this agency to do its job effectively so that every American has a shot to succeed based on merit and hard work.    Unfortunately, the enforcement and regulatory approach adopted by EEOC in recent years raises serious doubts about whether our nation's best interests are being served.    For example, the Commission has implemented controversial guidance on the use of criminal background checks that will make it more difficult for employers to protect their employees and customers. At a hearing held last Congress, the subcommittee received testimony from Ms. Lucia Bone, whose sister, Sue Weaver, was murdered by a man who months earlier had cleaned the air ducts in her home. A simple criminal background check might have saved this woman's innocent life.    State and local policies requiring criminal background checks are intended to protect Americans who come in contact with workers in vulnerable situations, such as at home and in the classroom. As a result of EEOC's misguided policy, more Americans will be put in harm's way, including women and children.    The EEOC should scrap this misguided policy completely. But if it won't, then Congress should take steps to rein it in and help provide families greater peace of mind the next time they invite a stranger into their home or a child's classroom.    Furthermore, EEOC has challenged employee wellness programs. Employers develop these innovative programs in order to improve the health of employees and their families, increase productivity, and reduce health costs. Yet litigation pursued by the Commission is actually discouraging employers from implementing these programs even though Congress, on a bipartisan basis, has expressed its clear support for employee wellness programs.    Lastly, EEOC is spending more time and resources pursuing systemic or class action investigations, often without any allegation of wrongdoing. The Commission has also been sanctioned in recent years for pursuing claims that are frivolous and without merit.    This is how one federal court--circuit court described the EEOC enforcement action, and I quote: ``EEOC brought this case on the basis of a homemade methodology, crafted by witness with no particular expertise to craft it, administered by persons with no particular expertise to administer it, tested by no one, and accepted only by the witness himself.''    Meanwhile, a backlog of discrimination claims filed by individual workers continues to plague the Commission. This is no way to run an agency with a mission as important as the EEOC's, and we must demand better. To help workers succeed in the workplace without fear of discrimination, Congress has a responsibility to hold the Commission accountable for its regulatory and enforcement policies.    We will examine today a number of legislative proposals to help us do just that. Together, these proposals will instill greater transparency and accountability in EEOC, and improve its enforcement activities, and help more workers and employers enjoy the benefits of employee wellness programs.    I look forward to discussing in greater detail with our witnesses the positive reforms in these bills and hope they will receive strong, bipartisan support.    With that, I will now recognize the Ranking Member of the subcommittee, Representative Wilson, for her opening remarks.</t>
   </si>
   <si>
     <t>412412</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Frederica</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you, Mr. Chairman.    Today we will examine four bills that would impact the Equal Employment Opportunity Commission, EEOC, in ways that I fear will compromise the enforcement of civil rights laws. Since 2014, we will have had three hearings regarding the EEOC; yet, we have not once invited the Commissioners themselves to testify about the bills that could severely impact their enforcement of employment civil rights laws.    The name of this subcommittee is Workforce Protections, and by our name alone it is clear that we should be doing our best to protect workers. These four bills appear to be a grab-bag for unscrupulous employers seeking to strip the EEOC of the tools they need to combat employment discrimination on the basis of race, color, religion, national origin, sex, pregnancy, age, disability, and genetic information.    Fifty years ago, after the creation of the enactment of the Civil Rights Act of 1965 and the creation of the EEOC, the job of the EEOC is far from complete, despite many advances.    Mr. Chairman, these four bills today ignore the fact that race, gender, disability, and age discrimination persist, and we should not be hindering the agency's charge with combatting unlawful discrimination. In fiscal year 2014, just for example, in fiscal year 2014, of the 88,778 discrimination charges filed with EEOC, 35 percent were based on race, 29 percent were based on sex, 29 percent were based on disability status, and 23.2 percent were based on age discrimination.    Mr. Chairman, I am at a loss to understand why we would want to tie the hands of the EEOC, an agency that has a backlog of 70-plus charges.    Here is how we would tie their hands. Number one: Stripping the general counsel's authority to make a determination about what charges the EEOC should pursue to protect American workers, given there is a policy in place to ensure novel legal questions and controversial matters must already--already be submitted to the Commission for approval.    Number two: Limiting the EEOC's disparate impact examination of criminal background checks. Even Clarence Thomas, Commission chair in 1987, adopted the agency's guidance, which says that the criminal background checks, like other hiring requirements that could exclude certain people, should only relate to the job.    Number three: Granting liability exemption to employers who violate employee privacy and civil rights under the American and Disabilities Act (ADA) and the Genetic Information Nondiscrimination Act (GINA).    And number four: Finally, undermining the successful conciliation process by imposing legal hurdles to resolving cases and opening the process to extensive litigation based on the adequacy of the conciliation process, rather than resolving the substance of whether or not there are impermissible discrimination.    EEOC's job should be about getting results, not providing full employment for law firms looking for new ways to frustrate resolution of a disputed discrimination case.    Mr. Chairman, I would ask that you call another hearing where we can review these four bills with all five of the EEOC Commissioners. We need to assess the implications of these bills and determine whether there are unintended effects, such as piling on delays in resolving cases.    We need to hear from the Commissioners to determine whether these bills will set up roadblocks for fair and timely resolution of claims by those who face race, sex, age, or disability-based discrimination. We want to determine if these bills, as drafted, will spawn unnecessary litigation and create more confusion.    I thank the witnesses for being here today, and I look forward to hearing your testimony. Thank you so much for coming.    I yield back to the Chairman.</t>
   </si>
   <si>
@@ -67,30 +82,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kehoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kehoe. Chairman Walberg, Chairman Kline, Ranking Member Wilson, and members of the subcommittee, thank you for inviting me to testify today on behalf of the U.S. Chamber of Commerce.    The Chamber of Commerce is a longstanding supporter of reasonable and necessary steps designed to achieve equal employment opportunity. However, the Chamber has serious concerns as to how these laws are currently being administered and enforced by the EEOC.    No matter how well-intentioned, any law enforcement agency's judgment, including the EEOC, can become clouded by hubris and susceptible to overreach. Too often, courts have taken exception to the EEOC's shoot-first-aim-later tactics.    For example, just last Friday, a judge awarded attorney's fees to two companies forced to defend themselves against what the court called frivolous litigation. Just a month ago, a 4th Circuit judge issued a scathing opinion against the EEOC for not being vigilant enough to avoid abusing the power that Congress bestowed upon it.    These and other litigation embarrassments can be blamed in part on the Commissioners' lack of control over the EEOC litigation program. Only Commissioners have the statutory authority to initiate litigation. In 1996 the Commissioners delegated away much of this authority to the general counsel, who then re-delegated away to regional attorneys.    The Commission partially rescinded this delegation in 2012, but problems persist. Far too often, Commissioners learn about litigation by an EEOC press release or social media. The general counsel or unappointed, unconfirmed regional attorneys are making policy through litigation. However, any EEOC general counsel is the agency's litigator, not its policymaker.    For 40 years courts have reviewed the EEOC's statutory conciliation efforts. In 2013, a 7th Circuit Court rejected this statutory safeguard, finding conciliation not subject to judicial review.    This issue is currently before the Supreme Court in EEOC v. Mach Mining, where the EEOC argued that, as a law enforcement agency, its actions related to whether it complied with statutory mandates are not reviewable. This position is simply breathtaking in scope and encourages the EEOC to purposefully eschew conciliation in search of the next lawsuit--the opposite of congressional intent.    All of the issues that have plagued the EEOC recently were on full display in EEOC v. Honeywell, a case filed by the EEOC seeking a preliminary injunction to prohibit Honeywell from offering financial incentives pursuant to the wellness program. The EEOC received charges on October 16, 2014, determined that day that a violation of the ADA and GINA occurred, demanded that Honeywell stop using financial incentives, and filed litigation 11 days later.    However, the Affordable Care Act, HIPAA, and joint regulations issued by three cabinet-level agencies permit--indeed, encourage--financial incentives and wellness programs. The EEOC's theory was that the incentives made participation non-voluntary under the ADA and GINA even if the incentives complied with the Affordable Care Act and its implementing regulations.    One district office believed so and filed suit without Commissioner approval, seeing to establish a policy position never adopted by the Commissioners. This rogue agency strategy will likely have a chilling effect on the development and implementation of wellness programs.    Ultimately, the EEOC's choice to focus on systemic litigation with questionable theories has caused it to ignore instances of more traditional types of discrimination, leaving alleged victims and their employers in limbo, literally for years.    A decade ago, the Commission would file almost 375 lawsuits annually. Despite an increased budget in 2010, the EEOC now files only 130. One can rightfully ask what the EEOC is doing with its sizeable budget, as it is clear that all too often they are not investigating promptly, not conciliating in good faith, and not litigating very well.    Justice Brandeis once said that sunlight is the best disinfectant. The four bills under consideration today would provide that sunlight and are common-sense, narrow solutions to these issues.    H.R. 549 will ensure that policymaking is rightfully returned to the commissions--Commissioners in all multi-victim litigation that the EEOC pursues. H.R. 550 will clarify the EEOC's duty to conciliate and ensure that such efforts are reviewable in court. H.R. 1189 will ease the uncertainty created by the EEOC's litigation against Honeywell.    Finally, H.R. 548 provides clarity for employers faced with state or local mandates prohibiting the hiring of certain convicted felons for certain positions. That is all that it does.    Overall, these bills should enhance the EEOC's functionality and accountability, and the chamber supports them.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Now recognize Ms. Simon for five minutes of testimony.</t>
   </si>
   <si>
+    <t>Simon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Simon. Good morning, Chairman Walberg, Chairman Kline, Ranking Member Wilson, and members of the subcommittee. My name is Tami Simon and I am managing director of the Knowledge Resource Center and the Career Practice at Buck Consultants and Xerox Company. It is my honor to testify today on behalf of the American Benefits Council, of which Buck Consultants is a member.    Collectively, the Council's members either sponsor directly or provide services to employee benefit plans that cover over one million Americans. Many of the council's members are at the forefront of developing wellness programs to help employees live healthier lives.    I have three points that I would like to share with you today. First, why are wellness programs good for America? Second, what are the current challenges that employers are facing with their wellness programs today? And third, why is legislation necessary?    First, why are wellness programs good for America? Wellness programs help achieve better health outcomes for employees and also have the potential to increase employee productivity by helping to reduce absenteeism due to sickness and disability, improve workforce morale and engagement, and reduce health care spending.    The prospect of a healthier workforce has compelled a growing number of companies to develop and implement wellness strategies; 65 percent of respondents to Buck's 2014 wellness survey indicated that they have a wellness strategy. That is up from 49 percent in 2007. Other surveys estimate that more than 75 percent of U.S. employees now have access to wellness programs.    A critical component of encouraging employers to offer meaningful wellness programs is consistent federal policy that promotes the health of Americans and is aligned across multiple agencies and Congress.    As such, employers applaud Congress for working on a bipartisan basis to craft the wellness provision in the Patient Protection and Affordable Care Act that built on the existing wellness program framework created by HIPAA. This is a rare bipartisan provision in the controversial health care reform law and reflects Congress' approval of offering incentives for health-contingent wellness programs.    Now, as you may recall, HIPAA prohibits group health plan wellness programs from discriminating against individuals in eligibility, benefits, and premiums based on a health factor, which includes, among other things, disability. And for many such programs, the law imposes financial limits, notice obligations, and alternative standards for those unable to meet the program standards.    HIPAA also contains privacy and security rules protecting individual health information. Information that is obtained through a wellness program is part of the group health plan, can't be used without an authorization for any reason other than treatment, payment, or health care operations.    So what is the current challenge? Notwithstanding employers' interest in establishing legally compliant wellness programs and the bipartisan support of Congress and the administration, a great deal of uncertainty exists in current EEOC guidance regarding what constitutes a voluntary wellness program under the Americans with Disability Act and how the Genetic Information Nondiscrimination Act applies to common wellness program designs.    This legal uncertainty has been exacerbated by enforcement actions initiated by the EEOC regional offices against some employers' HIPAA and PPACA-compliant wellness programs. These actions allege that incentives or penalties associated with participation in a group health plan's wellness program violate the ADA and GINA.    These actions have had a chilling effect on employer wellness programs.    To put it more plainly, currently employers just don't know what to do. On the one hand, they are designing programs that comply with HIPAA and PPACA's clear and comprehensive nondiscrimination rules, but on the other hand, still face the risk of litigation for not complying with EEOC's unclear standards. This is very frustrating for employers that care about the well-being of their employees and take seriously their compliance obligations.    So what is the solution? Chairman Kline has introduced the Preserving Employee Wellness Programs Act of 2015, or H.R. 1189, which supports the existing HIPAA and PPACA legislative framework with regard to wellness programs, striking, we believe, the right balance between providing certainty to employers and ensuring an appropriate role for the EEOC to protect employees from discrimination.    The council fully supports advancement of H.R. 1189 and urges members of the subcommittee and full committee to please join Chairman Kline as cosponsors.    Thank you for the opportunity to testify, and the council and I look forward to working with you to restore certainty to employers focusing on improving the health of their workforce.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Recognize Ms. House now for your five minutes of testimony.</t>
   </si>
   <si>
+    <t>House</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. House. Thank you.    Chairman Walberg, Ranking Member Wilson, and all the members of the Workforce Protections Subcommittee, I am Tanya Clay House, director of public policy of the Lawyers' Committee for Civil Rights Under Law. I thank you for the opportunity to provide this testimony today in furtherance of the protection of the equal employment and civil rights of all Americans.    The Lawyers' Committee is a nonpartisan, nonprofit organization established in 1963 at the request of President John F. Kennedy to involve the private bar in providing legal services to address racial discrimination. As policy director and as co-chair of the Employment Task Force of the Leadership Conference on Civil and Human Rights, I work with the larger civil rights community on the numerous employment issues generally, as well as the necessary enforcement agencies, including the Equal Employment Opportunity Commission as well as the Department of Justice.    In the interest of time, I would like to focus my remarks primarily on the underlying theories that support a more robust EEOC and oppose the passage of legislation that would undermine the civil rights of employees. As this Committee is aware, Congress has assigned the EEOC the primary responsibility for enforcing, in the private sector, most of the provisions prohibiting discrimination in employment of every major civil rights law enacted since 1963.    Yet, H.R. 548, 549, 550, and 1189 all would subtract from the scope of the EEOC's enforcement authority in a way that would primarily serve to eliminate the effective and timely enforcement of civil rights protections for American workers. Furthermore, the claim that such bills would actually enable the EEOC to more efficiently comply with its mandate begs the question of whether supporters of these bills believe the mandate of the EEOC is to eliminate the obligations of employers to not discriminate or allow for the creation of hostile work environments, or instead, to protect the rights of employees to not be unfairly discriminated against.    Unless the EEOC's mandate has changed within the past 24 hours of me writing this testimony, I would submit that it is the latter.    Employee claims of discrimination are not subsiding. Every year during the Obama administration the EEOC has received between 90 to 100 charges of--100,000 charges of discrimination. Despite a relatively small staff, the Commission has been able to conclude 15 or more of the--percent of the--more of the cases resolved every year with some form of compensation or other benefit to the employee who has been charged--who has charged the employer with discrimination.    A recent example is a case that has been prosecuted by the EEOC jointly with the Lawyers' Committee, the state of New York, the city of New York, and in this case, the settlement would potentially provide an estimated $12 million in compensation to 400 workers.    Critics of the EEOC view the Commission as a government agency that needs to be restrained. The Lawyers' Committee and the larger civil rights community fervently reject this belief. In light of the substantial benefits the Commission obtains for employees, it is not reasonable to evaluate the EEOC based upon a small number of reports highlighted by those opposed generally to the EEOC and the law it enforces.    To be clear, H.R. 1189, H.R. 548 would both essentially declare by fiat that certain civil rights laws are null and void in application. Specifically, H.R. 548 would undermine the protections that Title 7 provides by codifying the use of unjust stereotypes by employers.    On the other hand H.R. 1189 effectively works to undermine critical civil rights protections and permits workers to be coerced into disclosing sensitive medical and genetic information to their employers, thus enabling employers to shift the cost of health insurance away from them and onto the employee.    H.R. 549 would eliminate the ability of the EEOC to more efficiently engage in investigations and lawsuits, instead instituting unnecessary, duplicative, and untimely--and ultimately obstructionist approval process for litigation, while H.R. 550 attempts to legislatively require the EEOC to engage in a process that is currently under review at the Supreme Court of--in the case of Mach Mining.    Although the claim was made that all these bills would create a more efficient EEOC, the idea that enabling the blanket disregard of current civil rights laws is incredulous at best. Congress should not disregard the very real existence of ongoing, unjust discrimination against American workers.    For instance, current estimates are the 70 million Americans have an arrest record for criminal offense. Thus, H.R. 548 would automatically exclude all of these Americans--70 million Americans--from the workforce.    This is not just anecdotal. In the case where the Lawyers' Committee is co-counsel, census records for the 2010 process reveal that between 850,000 and 1 million applicants who had FBI arrest records were diverted into a separate screening process where fewer than 1 percent were hired, while almost 30 percent of the applicants who remained in the regular pool were hired.    The enforcement of our nation's civil rights laws, particularly those in the employment context, is of a paramount importance to the Lawyers' Committee. If the goal is to enable more effective enforcement on behalf of American workers, we suggest the committee provide for proper funding of the EEOC.    I encourage this Committee to not move forward with legislation that would undermine the EEOC. The American workers are depending on you to protect the employment rights and simply do the right thing.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    Now, Professor Heriot, we will recognize you for your five minutes of testimony.</t>
   </si>
   <si>
+    <t>Heriot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Heriot. Thank you for this opportunity to testify in support of the proposed Certainty in Enforcement Act.    The bill is aimed largely at correcting a narrow problem created by the EEOC's April 25, 2012 guidance, a controversial document aimed at restricting an employer's ability to take into consideration a job applicant's criminal record when hiring. The guidance purports to draw its authority from Title 7, which prohibits employment discrimination based on race, color, religion, sex, or national origin.    Of course, it requires some gymnastics to get from that kind of discrimination to discrimination on the basis of criminal record. To do so, the EEOC employs disparate impact theory.    Under this controversial theory, which, alas, was approved by the Supreme Court back in the 1970s in Griggs v. Duke Power Company, intent to discriminate on the basis of race, color, et cetera is irrelevant. It is enough the employer's actions have an effect on some--have more effect on some protected groups than others if they are not justified by business necessity.    I should add at this juncture that in addition to the narrow problem dealt with with the proposed act, there are many other things wrong with this guidance. But given the difficulties of passing major legislation, this bill must be regarded as a good start--one that should enjoy bipartisan support.    So let me get to the narrow point to the bill. The bill seeks to resolve a conflict between federal law, or at least the EEOC's conception of federal law, and state law. On the one hand, the guidance is aimed in very vague terms at limiting an employer's discretion to make employment decisions based on the employee's criminal record. Unfortunately, after reading it, even experienced attorneys won't know how to resolve particular cases.    But on the other hand, state law sometimes requires employers to decline to hire employees based on their criminal records. So what is the employer to do?    The guidance forces employers into an impossible bind. Employers are told that maybe--but only maybe--federal law forbids what state law requires, and that if so, it is their duty to obey federal, not state law.    According to the guidance, it depends on the circumstances of each situation since even the EEOC is not foolish enough to believe that a convicted pedophile should be hired as a camp counselor or that a convicted necrophiliac should be able to get a job at the morgue.    Nobody knows where the EEOC will draw the line. All they know is that the agency has been pushing the line very far towards not permitting employers to take criminal convictions into account.    The one thing that is clear is that if, in the EEOC's view, federal law forbids what state law demands, the employers allegiance must be to federal law. Employers are apparently expected to make their best guess as to whether federal law overrules state law in any particular case. In the end it will be utterly unclear to any conscientious employer exactly what, if anything, the EEOC is attempting to require it to do.    Now, it is true that under the supremacy clause federal law trumps state law, but the guidance's lack of clarity makes the situation extremely unfair to employers. It shouldn't be that way. When a law contains catch-22s of this kind, jobs get exported overseas.    Expect two kinds of errors. An employer may wrongly conclude that the guidance does not forbid her to follow state law, or she may wrongly conclude that it does. In either case, she is going to be in hot water with some government agency, be it federal or state.    The proposed Certainty in Enforcement Act throws the hapless employer a lifeline. It clarifies federal law in one respect: It tells employers that they are free to comply with state law without fear of being found in violation of Title 7 on a disparate impact theory. Again, very, very narrow.    Since I have a few seconds left on the clock, let me say that an even better proposal would be to overrule the EEOC entirely and restore employer discretion to take into account an employee's criminal record according to her best judgment. Simply exempt decisions based on criminal records from liability for disparate impact.    Note that I am not saying that the federal government should do nothing to encourage the hiring of ex-offenders. The government already does this by providing a tax deduction for employers who hire ex-offenders.    This carrot approach works much better than the stick because it allows employers to fit the right ex-offender into the right job. Pressuring employees to hire ex-offenders against their better judgment will only result in problems.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you.    And thank you, each of the panelists, for your testimony. I am sure it will elicit some strong questions.    And for that, I recognize the Chairman of the full Committee, Mr. Kline, sponsor of H.R. 1189, for first round of questioning.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman, for your courtesy in allowing me to ask the first question. Actually won't get you anything, but thanks so much, and thanks to the witnesses----</t>
   </si>
   <si>
@@ -115,6 +145,9 @@
     <t xml:space="preserve">    Chairman Walberg. Thank the gentleman.    I now recognize the gentleman from Virginia and the Ranking Member of the full Committee, Mr. Scott.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, thank you, Mr. Chairman.    Mr. Kehoe, does your testimony include the statement that the EEOC does not have the authority to issue regulations under Title 7?</t>
   </si>
   <si>
@@ -217,6 +250,12 @@
     <t>412605</t>
   </si>
   <si>
+    <t>Brat</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, to all that are with us today, for your testimony.    I taught economic justice for the last 18 years at Randolph-Macon College and so I think it is the intent of everyone here, and the--sometimes the partisan hyperbole goes a little overboard, but I think everyone here is in favor of justice for everybody and equal treatment under the law for everybody. And so I applaud all of you for your statements. I think it just comes down to kind of common sense and where the pendulum is.    And so I think you have all done an outstanding job today, of showing us that it looks like the--previous comments just offered up--the EEOC is overreaching in some cases, or the employer is the better judge of what should be taking place. And at the same time, we don't--our justice system allows for individuals under law to contest that.    And so I don't have much more to add beyond what our panelists today have offered up.    Thank you very much for being with us.    I yield back, Mr. Chairman--my time back to the Chairman, yes.</t>
   </si>
   <si>
@@ -244,6 +283,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman.    And thank you, to the witnesses.    I am going to comment, and I got the feeling I am going to be doing this every subcommittee. We did a good job of lawyering up again; we have got a lot of lawyers on the panel. It would be nice maybe to have some of the small business owners who are affected.    We are going to have to change the name of the committee pretty soon to Education and Workforce via the Judicial System at the rate we are going. But we do have a lot of lawyers----</t>
   </si>
   <si>
@@ -286,6 +331,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair.    And thank you all for your testimony.    Ms. House, during your testimony on the Certainty in Enforcement Act you mentioned that 70 million Americans would automatically be excluded from the employment sector because of criminal background searches, with the greatest impact being felt in the African-American community. According to the Crime and Delinquency Journal, by age 23, 49 percent of black males and 44 percent of Hispanic males have been arrested.    Can you speak to the effect that this legislation would have on already high employment rate for African-Americans and Hispanics and how it in turn would affect their respective communities?</t>
   </si>
   <si>
@@ -317,6 +368,9 @@
   </si>
   <si>
     <t>412613</t>
+  </si>
+  <si>
+    <t>DeSaulnier</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman.    And like my friend from Wisconsin, I struggle with being a small--former small business owner who was going to go to law school and chose not to and continued to follow that choice. And I appreciate the Chairman's comments as well, as being a small employer who worried about lawyering up.    So my questions are about an issue that I spent a good deal of time on in the California legislature and with a constituent who was a longtime chairman of Safeway and tried to do employee wellness programs, but he did that through the meet and confer process for all of his non-management folks. So while I believe that there is evidence that obviously wellness programs are good for everybody, they help to control costs.    But I also believe, as a former employer, that sometimes--to sort of borrow what Professor Heriot said--that although you can't mandate from the beltway, sometimes--oftentimes managing people you try to do it collaboratively and--rather than force them to do things.    So the question is to Ms. House to begin with. The Genetic Information Nondiscrimination Act made sure that wellness programs and that information were given up voluntarily. The Preserving Employee Wellness Programs Act that Congress currently is considering overrides the GINA provision that requires that participation in wellness programs are voluntary.    So much of this is being defined in the court system right now. Is that not true, in----</t>
@@ -734,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,2549 +818,2972 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>89</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>89</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>89</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G85" t="s">
+        <v>118</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G87" t="s">
+        <v>118</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G91" t="s">
+        <v>118</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G95" t="s">
+        <v>118</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>100</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G99" t="s">
+        <v>118</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>100</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G103" t="s">
+        <v>118</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Walberg</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412412</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
   </si>
   <si>
     <t>412605</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Brat</t>
@@ -788,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,2969 +833,3180 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G85" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G99" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G103" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
